--- a/forms/Form-4SF_interim-multiple.xlsx
+++ b/forms/Form-4SF_interim-multiple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CDBB9D-4E89-4728-9B78-37A7F5D18E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D283B17-68CB-4BB4-976D-08BC6E82C5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="m5fYTWOuvn9po4Wc9Ec8Ocp8Bu22/cBH+lIv9JvSOHQNR2aFkFacb9ggH1N1LZxz0/bSakIV0iV7tumFfcGN2A==" workbookSaltValue="9LfHRllNJNkuXDGmAlc+/w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -48,12 +48,6 @@
     <t>Full name</t>
   </si>
   <si>
-    <t>e-mail</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
     <t>General information</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>Submission information</t>
   </si>
   <si>
-    <t>Finalization date</t>
-  </si>
-  <si>
     <t>Submission date</t>
   </si>
   <si>
@@ -169,6 +160,15 @@
   </si>
   <si>
     <t>1.0.0-interim</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Finalisation date</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1323,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="65" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -1344,17 +1344,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1370,7 +1370,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1395,7 +1395,7 @@
       <c r="D8" s="64"/>
       <c r="E8" s="10"/>
       <c r="F8" s="64" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="11"/>
@@ -1416,12 +1416,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>3</v>
+      <c r="F10" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="11"/>
@@ -1438,7 +1438,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="10"/>
@@ -1449,7 +1449,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="10"/>
@@ -1478,7 +1478,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -1498,7 +1498,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="10"/>
@@ -1509,7 +1509,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="10"/>
@@ -1520,7 +1520,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="10"/>
@@ -1549,7 +1549,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="10"/>
@@ -1589,7 +1589,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QZ3qx76oTnC1/SuLEsw1qkCYbI+WcN2vIO191SXgeTp1Lr0qKhikiTTsNKGoVM7gXUMaYeru5Yfuvfil9bTccQ==" saltValue="TzsO1+ex/JyMh6olwlGsuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B553rjW2/xdwEgjI6mXjMe5yu1fCRexT05bPPHMpAwlzkbN/yL5SHA264+wGYyTGwO/r9KduKBtbvjNLl0Uwtw==" saltValue="WDEY8wZXSm0BLf0N6TJyEw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="2" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="65" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" s="75"/>
       <c r="D4" s="75"/>
@@ -1729,22 +1729,22 @@
       <c r="I4" s="75"/>
       <c r="J4" s="76"/>
       <c r="K4" s="74" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L4" s="75"/>
       <c r="M4" s="75"/>
       <c r="N4" s="76"/>
       <c r="O4" s="78" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P4" s="79"/>
       <c r="Q4" s="78" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R4" s="75"/>
       <c r="S4" s="79"/>
       <c r="T4" s="74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U4" s="75"/>
       <c r="V4" s="75"/>
@@ -1752,70 +1752,70 @@
     </row>
     <row r="5" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="53" t="s">
+      <c r="K5" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="54" t="s">
+      <c r="T5" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="56" t="s">
-        <v>32</v>
-      </c>
       <c r="V5" s="48" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="W5" s="49" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">

--- a/forms/Form-4SF_interim-multiple.xlsx
+++ b/forms/Form-4SF_interim-multiple.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D283B17-68CB-4BB4-976D-08BC6E82C5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0671C90-161B-471F-83A7-D56F74495A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="m5fYTWOuvn9po4Wc9Ec8Ocp8Bu22/cBH+lIv9JvSOHQNR2aFkFacb9ggH1N1LZxz0/bSakIV0iV7tumFfcGN2A==" workbookSaltValue="9LfHRllNJNkuXDGmAlc+/w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -742,7 +742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -981,6 +981,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1307,7 +1308,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1421,7 @@
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="80" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="22"/>
@@ -1589,7 +1590,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="B553rjW2/xdwEgjI6mXjMe5yu1fCRexT05bPPHMpAwlzkbN/yL5SHA264+wGYyTGwO/r9KduKBtbvjNLl0Uwtw==" saltValue="WDEY8wZXSm0BLf0N6TJyEw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vTIcU4d/90e487i2iRXMuY0Qd/ybmKFbN5iRSGNkYmJteDZ1C+2Zc8ddvxRg3GoP8N71ZlFZhztf+ayayqQrWg==" saltValue="7He2NTLgOq7/D++ldATSTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>

--- a/forms/Form-4SF_interim-multiple.xlsx
+++ b/forms/Form-4SF_interim-multiple.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0671C90-161B-471F-83A7-D56F74495A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956BFD0E-3B2E-4611-ADBB-4E3AEF81AAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="m5fYTWOuvn9po4Wc9Ec8Ocp8Bu22/cBH+lIv9JvSOHQNR2aFkFacb9ggH1N1LZxz0/bSakIV0iV7tumFfcGN2A==" workbookSaltValue="9LfHRllNJNkuXDGmAlc+/w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -742,7 +742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -981,7 +981,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1308,7 +1307,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1420,7 @@
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="22"/>
